--- a/data/mappings/FREDReportList.xlsx
+++ b/data/mappings/FREDReportList.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mlgcompanies-my.sharepoint.com/personal/nburmeister_mlgcompanies_com/Documents/Files/_Development/MLG-Data-Library/data/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABDACC104800991B459A5ADE58E8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B7DD740A-CE6C-4959-BCBA-0D0EF2F96B0C}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_F25DC773A252ABDACC104800991B459A5ADE58E8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{64DD87D6-1C92-47AB-8839-C505343888C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25290" yWindow="3510" windowWidth="21600" windowHeight="11085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="states" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="177">
   <si>
     <t>name</t>
   </si>
@@ -85,6 +86,477 @@
   </si>
   <si>
     <t xml:space="preserve">Dates of U.S. recessions as inferred by GDP-based recession indicator </t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>56</t>
   </si>
 </sst>
 </file>
@@ -120,8 +592,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,4 +971,906 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813D3CE6-98F5-43EB-B04C-3F26A21AA37C}">
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>